--- a/Resources/Random User API Stress Testing.xlsx
+++ b/Resources/Random User API Stress Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaulhaquesaboj/Documents/SDET/Assignments/JMETER/Resources/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04448B07-695A-7B48-B72F-72824E271C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB69F7F-7846-2243-8512-F45D79C593BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{9126DA65-0CB2-8440-9737-AF35946BA5D6}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,7 +858,7 @@
       <c r="D14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="11">
         <v>4251</v>
       </c>
       <c r="F14" s="11" t="s">
@@ -873,7 +873,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="11">
-        <v>4251</v>
+        <v>4.72</v>
       </c>
       <c r="F15" s="3"/>
     </row>

--- a/Resources/Random User API Stress Testing.xlsx
+++ b/Resources/Random User API Stress Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaulhaquesaboj/Documents/SDET/Assignments/JMETER/Resources/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB69F7F-7846-2243-8512-F45D79C593BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6145928-37B2-6648-87AF-53280E650479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{9126DA65-0CB2-8440-9737-AF35946BA5D6}"/>
   </bookViews>
@@ -873,7 +873,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="11">
-        <v>4.72</v>
+        <v>4.7233333330000002</v>
       </c>
       <c r="F15" s="3"/>
     </row>
